--- a/Import Data/65x55.xlsx
+++ b/Import Data/65x55.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB659B-8BFE-4E62-83A5-2AAD0C35EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21105" yWindow="4395" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="46">
   <si>
     <t>6.5x5.5</t>
   </si>
@@ -155,21 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>1.07-NaN</t>
-  </si>
-  <si>
-    <t>1.04-NaN</t>
-  </si>
-  <si>
-    <t>1.10-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -253,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="C1083" sqref="C1083"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +568,7 @@
         <v>41996</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -543,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -559,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -582,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -605,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -613,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -630,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -644,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -670,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -690,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -716,7 +770,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.2</v>
       </c>
@@ -742,7 +796,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -768,7 +822,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.7</v>
       </c>
@@ -794,7 +848,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.9</v>
       </c>
@@ -820,7 +874,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.2</v>
       </c>
@@ -846,7 +900,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.4</v>
       </c>
@@ -872,7 +926,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.7</v>
       </c>
@@ -898,7 +952,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.9</v>
       </c>
@@ -924,7 +978,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.1</v>
       </c>
@@ -950,7 +1004,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.4</v>
       </c>
@@ -976,7 +1030,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.6</v>
       </c>
@@ -1002,7 +1056,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -1028,7 +1082,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.1</v>
       </c>
@@ -1054,7 +1108,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.3</v>
       </c>
@@ -1080,7 +1134,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.6</v>
       </c>
@@ -1106,7 +1160,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.8</v>
       </c>
@@ -1132,7 +1186,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.3</v>
       </c>
@@ -1184,7 +1238,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.5</v>
       </c>
@@ -1210,7 +1264,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.7</v>
       </c>
@@ -1236,7 +1290,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1262,7 +1316,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.2</v>
       </c>
@@ -1288,7 +1342,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.5</v>
       </c>
@@ -1314,7 +1368,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.7</v>
       </c>
@@ -1340,7 +1394,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9</v>
       </c>
@@ -1366,7 +1420,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6.2</v>
       </c>
@@ -1392,7 +1446,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6.4</v>
       </c>
@@ -1418,7 +1472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6.6</v>
       </c>
@@ -1444,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6.9</v>
       </c>
@@ -1470,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1510,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1530,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1556,7 +1610,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -1582,7 +1636,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.9</v>
       </c>
@@ -1608,7 +1662,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.4</v>
       </c>
@@ -1634,7 +1688,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.9</v>
       </c>
@@ -1660,7 +1714,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.4</v>
       </c>
@@ -1686,7 +1740,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.8</v>
       </c>
@@ -1712,7 +1766,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.3</v>
       </c>
@@ -1738,7 +1792,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3.8</v>
       </c>
@@ -1764,7 +1818,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.3</v>
       </c>
@@ -1790,7 +1844,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.7</v>
       </c>
@@ -1816,7 +1870,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.2</v>
       </c>
@@ -1842,7 +1896,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5.7</v>
       </c>
@@ -1868,7 +1922,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.2</v>
       </c>
@@ -1894,7 +1948,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.6</v>
       </c>
@@ -1920,7 +1974,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7.1</v>
       </c>
@@ -1946,7 +2000,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7.6</v>
       </c>
@@ -1972,7 +2026,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1998,7 +2052,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8.5</v>
       </c>
@@ -2024,7 +2078,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -2050,7 +2104,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9.5</v>
       </c>
@@ -2076,7 +2130,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9.9</v>
       </c>
@@ -2102,7 +2156,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10.4</v>
       </c>
@@ -2128,7 +2182,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10.9</v>
       </c>
@@ -2154,7 +2208,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11.4</v>
       </c>
@@ -2180,7 +2234,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11.8</v>
       </c>
@@ -2206,7 +2260,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12.3</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12.8</v>
       </c>
@@ -2258,7 +2312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13.2</v>
       </c>
@@ -2284,7 +2338,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13.7</v>
       </c>
@@ -2310,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2324,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2350,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2370,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2396,7 +2450,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.7</v>
       </c>
@@ -2422,7 +2476,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.4</v>
       </c>
@@ -2448,7 +2502,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.1</v>
       </c>
@@ -2474,7 +2528,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2.8</v>
       </c>
@@ -2500,7 +2554,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3.5</v>
       </c>
@@ -2526,7 +2580,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4.3</v>
       </c>
@@ -2552,7 +2606,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2578,7 +2632,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.7</v>
       </c>
@@ -2604,7 +2658,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.4</v>
       </c>
@@ -2630,7 +2684,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7.1</v>
       </c>
@@ -2656,7 +2710,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7.8</v>
       </c>
@@ -2682,7 +2736,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>8.5</v>
       </c>
@@ -2708,7 +2762,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9.1999999999999993</v>
       </c>
@@ -2734,7 +2788,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9.9</v>
       </c>
@@ -2760,7 +2814,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10.6</v>
       </c>
@@ -2786,7 +2840,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11.3</v>
       </c>
@@ -2812,7 +2866,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12.1</v>
       </c>
@@ -2838,7 +2892,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>12.8</v>
       </c>
@@ -2864,7 +2918,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13.5</v>
       </c>
@@ -2890,7 +2944,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14.2</v>
       </c>
@@ -2916,7 +2970,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14.9</v>
       </c>
@@ -2942,7 +2996,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15.6</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>16.3</v>
       </c>
@@ -2994,7 +3048,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>17</v>
       </c>
@@ -3020,7 +3074,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>17.7</v>
       </c>
@@ -3046,7 +3100,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18.399999999999999</v>
       </c>
@@ -3072,7 +3126,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>19.2</v>
       </c>
@@ -3098,7 +3152,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19.899999999999999</v>
       </c>
@@ -3124,7 +3178,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20.6</v>
       </c>
@@ -3150,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3164,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3190,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3236,7 +3290,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.9</v>
       </c>
@@ -3262,7 +3316,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.9</v>
       </c>
@@ -3288,7 +3342,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2.8</v>
       </c>
@@ -3314,7 +3368,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3.8</v>
       </c>
@@ -3340,7 +3394,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4.7</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5.7</v>
       </c>
@@ -3392,7 +3446,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6.6</v>
       </c>
@@ -3418,7 +3472,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7.6</v>
       </c>
@@ -3444,7 +3498,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8.5</v>
       </c>
@@ -3470,7 +3524,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9.5</v>
       </c>
@@ -3496,7 +3550,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10.4</v>
       </c>
@@ -3522,7 +3576,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11.3</v>
       </c>
@@ -3548,7 +3602,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>12.3</v>
       </c>
@@ -3574,7 +3628,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13.2</v>
       </c>
@@ -3600,7 +3654,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14.2</v>
       </c>
@@ -3626,7 +3680,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>15.1</v>
       </c>
@@ -3652,7 +3706,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16.100000000000001</v>
       </c>
@@ -3678,7 +3732,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17</v>
       </c>
@@ -3704,7 +3758,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -3730,7 +3784,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>18.899999999999999</v>
       </c>
@@ -3756,7 +3810,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>19.8</v>
       </c>
@@ -3782,7 +3836,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20.8</v>
       </c>
@@ -3808,7 +3862,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>21.7</v>
       </c>
@@ -3834,7 +3888,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22.7</v>
       </c>
@@ -3860,7 +3914,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>23.6</v>
       </c>
@@ -3886,7 +3940,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24.6</v>
       </c>
@@ -3912,7 +3966,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>25.5</v>
       </c>
@@ -3938,7 +3992,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>26.5</v>
       </c>
@@ -3964,7 +4018,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>27.4</v>
       </c>
@@ -3990,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4004,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4030,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4050,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4076,7 +4130,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.2</v>
       </c>
@@ -4102,7 +4156,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2.4</v>
       </c>
@@ -4128,7 +4182,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3.5</v>
       </c>
@@ -4154,7 +4208,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4.7</v>
       </c>
@@ -4180,7 +4234,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5.9</v>
       </c>
@@ -4206,7 +4260,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.1</v>
       </c>
@@ -4232,7 +4286,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8.3000000000000007</v>
       </c>
@@ -4258,7 +4312,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9.5</v>
       </c>
@@ -4284,7 +4338,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>10.6</v>
       </c>
@@ -4310,7 +4364,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>11.8</v>
       </c>
@@ -4336,7 +4390,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13</v>
       </c>
@@ -4362,7 +4416,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14.2</v>
       </c>
@@ -4388,7 +4442,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>15.4</v>
       </c>
@@ -4414,7 +4468,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>16.5</v>
       </c>
@@ -4440,7 +4494,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>17.7</v>
       </c>
@@ -4466,7 +4520,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18.899999999999999</v>
       </c>
@@ -4492,7 +4546,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20.100000000000001</v>
       </c>
@@ -4518,7 +4572,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>21.3</v>
       </c>
@@ -4544,7 +4598,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>22.5</v>
       </c>
@@ -4570,7 +4624,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>23.6</v>
       </c>
@@ -4596,7 +4650,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>24.8</v>
       </c>
@@ -4622,7 +4676,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>26</v>
       </c>
@@ -4648,7 +4702,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>27.2</v>
       </c>
@@ -4674,7 +4728,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>28.4</v>
       </c>
@@ -4700,7 +4754,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>29.5</v>
       </c>
@@ -4726,7 +4780,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>30.7</v>
       </c>
@@ -4752,7 +4806,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>31.9</v>
       </c>
@@ -4778,7 +4832,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>33.1</v>
       </c>
@@ -4804,7 +4858,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>34.299999999999997</v>
       </c>
@@ -4830,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4844,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4870,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4890,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4916,7 +4970,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.4</v>
       </c>
@@ -4942,7 +4996,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2.8</v>
       </c>
@@ -4968,7 +5022,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4.3</v>
       </c>
@@ -4994,7 +5048,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5.7</v>
       </c>
@@ -5020,7 +5074,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7.1</v>
       </c>
@@ -5046,7 +5100,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>8.5</v>
       </c>
@@ -5072,7 +5126,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9.9</v>
       </c>
@@ -5098,7 +5152,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.3</v>
       </c>
@@ -5124,7 +5178,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>12.8</v>
       </c>
@@ -5150,7 +5204,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>14.2</v>
       </c>
@@ -5176,7 +5230,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>15.6</v>
       </c>
@@ -5202,7 +5256,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>17</v>
       </c>
@@ -5228,7 +5282,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>18.399999999999999</v>
       </c>
@@ -5254,7 +5308,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>19.899999999999999</v>
       </c>
@@ -5280,7 +5334,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>21.3</v>
       </c>
@@ -5306,7 +5360,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>22.7</v>
       </c>
@@ -5332,7 +5386,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>24.1</v>
       </c>
@@ -5358,7 +5412,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -5384,7 +5438,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>26.9</v>
       </c>
@@ -5410,7 +5464,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>28.4</v>
       </c>
@@ -5436,7 +5490,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>29.8</v>
       </c>
@@ -5462,7 +5516,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>31.2</v>
       </c>
@@ -5488,7 +5542,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>32.6</v>
       </c>
@@ -5514,7 +5568,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>34</v>
       </c>
@@ -5540,7 +5594,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>35.5</v>
       </c>
@@ -5566,7 +5620,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>36.9</v>
       </c>
@@ -5592,7 +5646,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>38.299999999999997</v>
       </c>
@@ -5618,7 +5672,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>39.700000000000003</v>
       </c>
@@ -5644,7 +5698,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>41.1</v>
       </c>
@@ -5670,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5684,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5710,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5730,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5756,7 +5810,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.7</v>
       </c>
@@ -5782,7 +5836,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3.3</v>
       </c>
@@ -5808,7 +5862,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5</v>
       </c>
@@ -5834,7 +5888,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>6.6</v>
       </c>
@@ -5860,7 +5914,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8.3000000000000007</v>
       </c>
@@ -5886,7 +5940,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9.9</v>
       </c>
@@ -5912,7 +5966,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11.6</v>
       </c>
@@ -5938,7 +5992,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>13.2</v>
       </c>
@@ -5964,7 +6018,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>14.9</v>
       </c>
@@ -5990,7 +6044,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>16.5</v>
       </c>
@@ -6016,7 +6070,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>18.2</v>
       </c>
@@ -6042,7 +6096,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>19.899999999999999</v>
       </c>
@@ -6068,7 +6122,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>21.5</v>
       </c>
@@ -6094,7 +6148,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>23.2</v>
       </c>
@@ -6120,7 +6174,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>24.8</v>
       </c>
@@ -6146,7 +6200,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>26.5</v>
       </c>
@@ -6172,7 +6226,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>28.1</v>
       </c>
@@ -6198,7 +6252,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>29.8</v>
       </c>
@@ -6224,7 +6278,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>31.4</v>
       </c>
@@ -6250,7 +6304,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>33.1</v>
       </c>
@@ -6276,7 +6330,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>34.700000000000003</v>
       </c>
@@ -6302,7 +6356,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>36.4</v>
       </c>
@@ -6328,7 +6382,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>38.1</v>
       </c>
@@ -6354,7 +6408,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>39.700000000000003</v>
       </c>
@@ -6380,7 +6434,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>41.4</v>
       </c>
@@ -6406,7 +6460,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>43</v>
       </c>
@@ -6432,7 +6486,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>44.7</v>
       </c>
@@ -6458,7 +6512,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>46.3</v>
       </c>
@@ -6484,7 +6538,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>48</v>
       </c>
@@ -6510,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6524,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6550,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6570,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6596,7 +6650,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1.9</v>
       </c>
@@ -6622,7 +6676,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3.8</v>
       </c>
@@ -6648,7 +6702,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>5.7</v>
       </c>
@@ -6674,7 +6728,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>7.6</v>
       </c>
@@ -6700,7 +6754,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>9.5</v>
       </c>
@@ -6726,7 +6780,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>11.3</v>
       </c>
@@ -6752,7 +6806,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>13.2</v>
       </c>
@@ -6778,7 +6832,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>15.1</v>
       </c>
@@ -6804,7 +6858,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>17</v>
       </c>
@@ -6830,7 +6884,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>18.899999999999999</v>
       </c>
@@ -6856,7 +6910,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>20.8</v>
       </c>
@@ -6882,7 +6936,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>22.7</v>
       </c>
@@ -6908,7 +6962,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>24.6</v>
       </c>
@@ -6934,7 +6988,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>26.5</v>
       </c>
@@ -6960,7 +7014,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>28.4</v>
       </c>
@@ -6986,7 +7040,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>30.3</v>
       </c>
@@ -7012,7 +7066,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>32.1</v>
       </c>
@@ -7038,7 +7092,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>34</v>
       </c>
@@ -7064,7 +7118,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>35.9</v>
       </c>
@@ -7090,7 +7144,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>37.799999999999997</v>
       </c>
@@ -7116,7 +7170,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>39.700000000000003</v>
       </c>
@@ -7142,7 +7196,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>41.6</v>
       </c>
@@ -7168,7 +7222,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>43.5</v>
       </c>
@@ -7194,7 +7248,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>45.4</v>
       </c>
@@ -7220,7 +7274,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>47.3</v>
       </c>
@@ -7246,7 +7300,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>49.2</v>
       </c>
@@ -7272,7 +7326,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>51.1</v>
       </c>
@@ -7298,7 +7352,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>52.9</v>
       </c>
@@ -7324,7 +7378,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>54.8</v>
       </c>
@@ -7350,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7364,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7390,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7410,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7436,7 +7490,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.1</v>
       </c>
@@ -7462,7 +7516,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4.3</v>
       </c>
@@ -7488,7 +7542,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6.4</v>
       </c>
@@ -7514,7 +7568,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>8.5</v>
       </c>
@@ -7540,7 +7594,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>10.6</v>
       </c>
@@ -7566,7 +7620,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>12.8</v>
       </c>
@@ -7592,7 +7646,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14.9</v>
       </c>
@@ -7618,7 +7672,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17</v>
       </c>
@@ -7644,7 +7698,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>19.100000000000001</v>
       </c>
@@ -7670,7 +7724,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>21.3</v>
       </c>
@@ -7696,7 +7750,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>23.4</v>
       </c>
@@ -7722,7 +7776,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>25.5</v>
       </c>
@@ -7748,7 +7802,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>27.7</v>
       </c>
@@ -7774,7 +7828,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>29.8</v>
       </c>
@@ -7800,7 +7854,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>31.9</v>
       </c>
@@ -7826,7 +7880,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>34</v>
       </c>
@@ -7852,7 +7906,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>36.200000000000003</v>
       </c>
@@ -7878,7 +7932,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>38.299999999999997</v>
       </c>
@@ -7904,7 +7958,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>40.4</v>
       </c>
@@ -7930,7 +7984,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>42.5</v>
       </c>
@@ -7956,7 +8010,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>44.7</v>
       </c>
@@ -7982,7 +8036,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>46.8</v>
       </c>
@@ -8008,7 +8062,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>48.9</v>
       </c>
@@ -8034,7 +8088,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>51.1</v>
       </c>
@@ -8060,7 +8114,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>53.2</v>
       </c>
@@ -8086,7 +8140,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>55.3</v>
       </c>
@@ -8112,7 +8166,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>57.4</v>
       </c>
@@ -8138,7 +8192,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>59.6</v>
       </c>
@@ -8164,7 +8218,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>61.7</v>
       </c>
@@ -8190,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8204,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8230,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8250,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8276,7 +8330,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2.4</v>
       </c>
@@ -8302,7 +8356,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4.7</v>
       </c>
@@ -8328,7 +8382,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>7.1</v>
       </c>
@@ -8354,7 +8408,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>9.5</v>
       </c>
@@ -8380,7 +8434,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>11.8</v>
       </c>
@@ -8406,7 +8460,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>14.2</v>
       </c>
@@ -8432,7 +8486,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>16.5</v>
       </c>
@@ -8458,7 +8512,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>18.899999999999999</v>
       </c>
@@ -8484,7 +8538,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>21.3</v>
       </c>
@@ -8510,7 +8564,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>23.6</v>
       </c>
@@ -8536,7 +8590,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>26</v>
       </c>
@@ -8562,7 +8616,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>28.4</v>
       </c>
@@ -8588,7 +8642,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>30.7</v>
       </c>
@@ -8614,7 +8668,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>33.1</v>
       </c>
@@ -8640,7 +8694,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>35.5</v>
       </c>
@@ -8666,7 +8720,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>37.799999999999997</v>
       </c>
@@ -8692,7 +8746,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>40.200000000000003</v>
       </c>
@@ -8718,7 +8772,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>42.5</v>
       </c>
@@ -8744,7 +8798,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>44.9</v>
       </c>
@@ -8770,7 +8824,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>47.3</v>
       </c>
@@ -8796,7 +8850,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>49.6</v>
       </c>
@@ -8822,7 +8876,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>52</v>
       </c>
@@ -8848,7 +8902,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>54.4</v>
       </c>
@@ -8874,7 +8928,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>56.7</v>
       </c>
@@ -8900,7 +8954,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>59.1</v>
       </c>
@@ -8926,7 +8980,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>61.5</v>
       </c>
@@ -8952,7 +9006,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>63.8</v>
       </c>
@@ -8978,7 +9032,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>66.2</v>
       </c>
@@ -9004,7 +9058,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>68.5</v>
       </c>
@@ -9030,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9044,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9070,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9090,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9116,7 +9170,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2.6</v>
       </c>
@@ -9142,7 +9196,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5.2</v>
       </c>
@@ -9168,7 +9222,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>7.8</v>
       </c>
@@ -9194,7 +9248,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>10.4</v>
       </c>
@@ -9220,7 +9274,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>13</v>
       </c>
@@ -9246,7 +9300,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>15.6</v>
       </c>
@@ -9272,7 +9326,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>18.2</v>
       </c>
@@ -9298,7 +9352,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>20.8</v>
       </c>
@@ -9324,7 +9378,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>23.4</v>
       </c>
@@ -9350,7 +9404,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>26</v>
       </c>
@@ -9376,7 +9430,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>28.6</v>
       </c>
@@ -9402,7 +9456,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>31.2</v>
       </c>
@@ -9428,7 +9482,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>33.799999999999997</v>
       </c>
@@ -9454,7 +9508,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>36.4</v>
       </c>
@@ -9480,7 +9534,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>39</v>
       </c>
@@ -9506,7 +9560,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>41.6</v>
       </c>
@@ -9532,7 +9586,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>44.2</v>
       </c>
@@ -9558,7 +9612,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>46.8</v>
       </c>
@@ -9584,7 +9638,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>49.4</v>
       </c>
@@ -9610,7 +9664,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>52</v>
       </c>
@@ -9636,7 +9690,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>54.6</v>
       </c>
@@ -9662,7 +9716,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>57.2</v>
       </c>
@@ -9688,7 +9742,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>59.8</v>
       </c>
@@ -9714,7 +9768,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>62.4</v>
       </c>
@@ -9740,7 +9794,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>65</v>
       </c>
@@ -9766,7 +9820,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>67.599999999999994</v>
       </c>
@@ -9792,7 +9846,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>70.2</v>
       </c>
@@ -9818,7 +9872,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>72.8</v>
       </c>
@@ -9844,7 +9898,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>75.400000000000006</v>
       </c>
@@ -9870,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9884,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9910,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9930,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9956,7 +10010,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2.8</v>
       </c>
@@ -9982,7 +10036,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>5.7</v>
       </c>
@@ -10008,7 +10062,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>8.5</v>
       </c>
@@ -10034,7 +10088,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>11.3</v>
       </c>
@@ -10060,7 +10114,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>14.2</v>
       </c>
@@ -10086,7 +10140,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>17</v>
       </c>
@@ -10112,7 +10166,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>19.899999999999999</v>
       </c>
@@ -10138,7 +10192,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>22.7</v>
       </c>
@@ -10164,7 +10218,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>25.5</v>
       </c>
@@ -10190,7 +10244,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>28.4</v>
       </c>
@@ -10216,7 +10270,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>31.2</v>
       </c>
@@ -10242,7 +10296,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>34</v>
       </c>
@@ -10268,7 +10322,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>36.9</v>
       </c>
@@ -10294,7 +10348,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>39.700000000000003</v>
       </c>
@@ -10320,7 +10374,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>42.6</v>
       </c>
@@ -10346,7 +10400,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>45.4</v>
       </c>
@@ -10372,7 +10426,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>48.2</v>
       </c>
@@ -10398,7 +10452,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>51.1</v>
       </c>
@@ -10424,7 +10478,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>53.9</v>
       </c>
@@ -10450,7 +10504,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>56.7</v>
       </c>
@@ -10476,7 +10530,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>59.6</v>
       </c>
@@ -10502,7 +10556,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>62.4</v>
       </c>
@@ -10528,7 +10582,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>65.2</v>
       </c>
@@ -10554,7 +10608,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>68.099999999999994</v>
       </c>
@@ -10580,7 +10634,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>70.900000000000006</v>
       </c>
@@ -10606,7 +10660,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>73.8</v>
       </c>
@@ -10632,7 +10686,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>76.599999999999994</v>
       </c>
@@ -10658,7 +10712,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>79.400000000000006</v>
       </c>
@@ -10684,7 +10738,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>82.3</v>
       </c>
@@ -10710,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10724,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10750,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10770,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10796,7 +10850,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3.1</v>
       </c>
@@ -10822,7 +10876,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>6.1</v>
       </c>
@@ -10848,7 +10902,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>9.1999999999999993</v>
       </c>
@@ -10874,7 +10928,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>12.3</v>
       </c>
@@ -10900,7 +10954,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>15.4</v>
       </c>
@@ -10926,7 +10980,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>18.399999999999999</v>
       </c>
@@ -10952,7 +11006,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>21.5</v>
       </c>
@@ -10978,7 +11032,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>24.6</v>
       </c>
@@ -11004,7 +11058,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>27.7</v>
       </c>
@@ -11030,7 +11084,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>30.7</v>
       </c>
@@ -11056,7 +11110,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>33.799999999999997</v>
       </c>
@@ -11082,7 +11136,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>36.9</v>
       </c>
@@ -11108,7 +11162,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>39.9</v>
       </c>
@@ -11134,7 +11188,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>43</v>
       </c>
@@ -11160,7 +11214,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>46.1</v>
       </c>
@@ -11186,7 +11240,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>49.2</v>
       </c>
@@ -11212,7 +11266,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>52.2</v>
       </c>
@@ -11238,7 +11292,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>55.3</v>
       </c>
@@ -11264,7 +11318,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>58.4</v>
       </c>
@@ -11290,7 +11344,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>61.5</v>
       </c>
@@ -11316,7 +11370,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>64.5</v>
       </c>
@@ -11342,7 +11396,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>67.599999999999994</v>
       </c>
@@ -11368,7 +11422,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>70.7</v>
       </c>
@@ -11394,7 +11448,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>73.8</v>
       </c>
@@ -11420,7 +11474,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>76.8</v>
       </c>
@@ -11446,7 +11500,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>79.900000000000006</v>
       </c>
@@ -11472,7 +11526,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>83</v>
       </c>
@@ -11498,7 +11552,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>86</v>
       </c>
@@ -11524,7 +11578,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>89.1</v>
       </c>
@@ -11550,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11564,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11590,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11610,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11636,7 +11690,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>3.3</v>
       </c>
@@ -11662,7 +11716,7 @@
         <v>1.1419999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>6.6</v>
       </c>
@@ -11688,7 +11742,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>9.9</v>
       </c>
@@ -11714,7 +11768,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>13.2</v>
       </c>
@@ -11740,7 +11794,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>16.600000000000001</v>
       </c>
@@ -11766,7 +11820,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>19.899999999999999</v>
       </c>
@@ -11792,7 +11846,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>23.2</v>
       </c>
@@ -11818,7 +11872,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>26.5</v>
       </c>
@@ -11844,7 +11898,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>29.8</v>
       </c>
@@ -11870,7 +11924,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>33.1</v>
       </c>
@@ -11896,7 +11950,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>36.4</v>
       </c>
@@ -11922,7 +11976,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>39.700000000000003</v>
       </c>
@@ -11948,7 +12002,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>43.1</v>
       </c>
@@ -11974,7 +12028,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>46.4</v>
       </c>
@@ -12000,7 +12054,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>49.7</v>
       </c>
@@ -12026,7 +12080,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>53</v>
       </c>
@@ -12052,7 +12106,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>56.3</v>
       </c>
@@ -12078,7 +12132,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>59.6</v>
       </c>
@@ -12104,7 +12158,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>62.9</v>
       </c>
@@ -12130,7 +12184,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>66.2</v>
       </c>
@@ -12156,7 +12210,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>69.599999999999994</v>
       </c>
@@ -12182,7 +12236,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>72.900000000000006</v>
       </c>
@@ -12208,7 +12262,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>76.2</v>
       </c>
@@ -12234,7 +12288,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>79.5</v>
       </c>
@@ -12260,7 +12314,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>82.8</v>
       </c>
@@ -12286,7 +12340,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>86.1</v>
       </c>
@@ -12312,7 +12366,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>89.4</v>
       </c>
@@ -12338,7 +12392,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>92.7</v>
       </c>
@@ -12364,7 +12418,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>96.1</v>
       </c>
@@ -12390,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12404,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12430,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12450,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12476,7 +12530,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>3.5</v>
       </c>
@@ -12502,7 +12556,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>7.1</v>
       </c>
@@ -12528,7 +12582,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>10.6</v>
       </c>
@@ -12554,7 +12608,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>14.2</v>
       </c>
@@ -12580,7 +12634,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>17.7</v>
       </c>
@@ -12606,7 +12660,7 @@
         <v>1.319</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>21.3</v>
       </c>
@@ -12632,7 +12686,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>24.8</v>
       </c>
@@ -12658,7 +12712,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>28.4</v>
       </c>
@@ -12684,7 +12738,7 @@
         <v>1.3220000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>31.9</v>
       </c>
@@ -12710,7 +12764,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>35.5</v>
       </c>
@@ -12736,7 +12790,7 @@
         <v>1.319</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>39</v>
       </c>
@@ -12762,7 +12816,7 @@
         <v>1.3149999999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>42.6</v>
       </c>
@@ -12788,7 +12842,7 @@
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>46.1</v>
       </c>
@@ -12814,7 +12868,7 @@
         <v>1.2889999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>49.7</v>
       </c>
@@ -12840,7 +12894,7 @@
         <v>1.2609999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>53.2</v>
       </c>
@@ -12866,7 +12920,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>56.8</v>
       </c>
@@ -12892,7 +12946,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>60.3</v>
       </c>
@@ -12918,7 +12972,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>63.9</v>
       </c>
@@ -12944,7 +12998,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>67.400000000000006</v>
       </c>
@@ -12970,7 +13024,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>71</v>
       </c>
@@ -12996,7 +13050,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>74.5</v>
       </c>
@@ -13022,7 +13076,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>78.099999999999994</v>
       </c>
@@ -13048,7 +13102,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>81.599999999999994</v>
       </c>
@@ -13074,7 +13128,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>85.2</v>
       </c>
@@ -13100,7 +13154,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>88.7</v>
       </c>
@@ -13126,7 +13180,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>92.3</v>
       </c>
@@ -13152,7 +13206,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>95.8</v>
       </c>
@@ -13178,7 +13232,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>99.4</v>
       </c>
@@ -13204,7 +13258,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>102.9</v>
       </c>
@@ -13230,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13244,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13270,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13290,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13316,7 +13370,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>3.8</v>
       </c>
@@ -13342,7 +13396,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>7.6</v>
       </c>
@@ -13368,7 +13422,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>11.4</v>
       </c>
@@ -13394,7 +13448,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>15.1</v>
       </c>
@@ -13420,7 +13474,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>18.899999999999999</v>
       </c>
@@ -13446,7 +13500,7 @@
         <v>1.4990000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>22.7</v>
       </c>
@@ -13472,7 +13526,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>26.5</v>
       </c>
@@ -13498,7 +13552,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>30.3</v>
       </c>
@@ -13524,7 +13578,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>34.1</v>
       </c>
@@ -13550,7 +13604,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>37.9</v>
       </c>
@@ -13576,7 +13630,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>41.6</v>
       </c>
@@ -13602,7 +13656,7 @@
         <v>1.4970000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>45.4</v>
       </c>
@@ -13628,7 +13682,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>49.2</v>
       </c>
@@ -13654,7 +13708,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>53</v>
       </c>
@@ -13680,7 +13734,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>56.8</v>
       </c>
@@ -13706,7 +13760,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>60.6</v>
       </c>
@@ -13732,7 +13786,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>64.400000000000006</v>
       </c>
@@ -13758,7 +13812,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>68.099999999999994</v>
       </c>
@@ -13784,7 +13838,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>71.900000000000006</v>
       </c>
@@ -13810,7 +13864,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>75.7</v>
       </c>
@@ -13836,7 +13890,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>79.5</v>
       </c>
@@ -13862,7 +13916,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>83.3</v>
       </c>
@@ -13888,7 +13942,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>87.1</v>
       </c>
@@ -13914,7 +13968,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>90.8</v>
       </c>
@@ -13940,7 +13994,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>94.6</v>
       </c>
@@ -13966,7 +14020,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>98.4</v>
       </c>
@@ -13992,7 +14046,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>102.2</v>
       </c>
@@ -14018,7 +14072,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>106</v>
       </c>
@@ -14044,7 +14098,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>109.8</v>
       </c>
@@ -14070,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14084,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14110,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14130,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14156,7 +14210,7 @@
         <v>1.6779999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>4</v>
       </c>
@@ -14182,7 +14236,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>8</v>
       </c>
@@ -14208,7 +14262,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>12.1</v>
       </c>
@@ -14234,7 +14288,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>16.100000000000001</v>
       </c>
@@ -14260,7 +14314,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>20.100000000000001</v>
       </c>
@@ -14286,7 +14340,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>24.1</v>
       </c>
@@ -14312,7 +14366,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>28.1</v>
       </c>
@@ -14338,7 +14392,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>32.200000000000003</v>
       </c>
@@ -14364,7 +14418,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>36.200000000000003</v>
       </c>
@@ -14390,7 +14444,7 @@
         <v>1.6970000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>40.200000000000003</v>
       </c>
@@ -14416,7 +14470,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>44.2</v>
       </c>
@@ -14442,7 +14496,7 @@
         <v>1.6910000000000001</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>48.2</v>
       </c>
@@ -14468,7 +14522,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>52.3</v>
       </c>
@@ -14494,7 +14548,7 @@
         <v>1.6639999999999999</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>56.3</v>
       </c>
@@ -14520,7 +14574,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>60.3</v>
       </c>
@@ -14546,7 +14600,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>64.3</v>
       </c>
@@ -14572,7 +14626,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>68.3</v>
       </c>
@@ -14598,7 +14652,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>72.400000000000006</v>
       </c>
@@ -14624,7 +14678,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>76.400000000000006</v>
       </c>
@@ -14650,7 +14704,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>80.400000000000006</v>
       </c>
@@ -14676,7 +14730,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>84.4</v>
       </c>
@@ -14702,7 +14756,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>88.4</v>
       </c>
@@ -14728,7 +14782,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>92.5</v>
       </c>
@@ -14754,7 +14808,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>96.5</v>
       </c>
@@ -14780,7 +14834,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>100.5</v>
       </c>
@@ -14806,7 +14860,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>104.5</v>
       </c>
@@ -14832,7 +14886,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>108.5</v>
       </c>
@@ -14858,7 +14912,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>112.6</v>
       </c>
@@ -14884,7 +14938,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>116.6</v>
       </c>
@@ -14910,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14924,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14950,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14970,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14996,7 +15050,7 @@
         <v>1.879</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>4.3</v>
       </c>
@@ -15022,7 +15076,7 @@
         <v>1.8819999999999999</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>8.5</v>
       </c>
@@ -15048,7 +15102,7 @@
         <v>1.8839999999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>12.8</v>
       </c>
@@ -15074,7 +15128,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>17</v>
       </c>
@@ -15100,7 +15154,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>21.3</v>
       </c>
@@ -15126,7 +15180,7 @@
         <v>1.8939999999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>25.5</v>
       </c>
@@ -15152,7 +15206,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>29.8</v>
       </c>
@@ -15178,7 +15232,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>34</v>
       </c>
@@ -15204,7 +15258,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>38.299999999999997</v>
       </c>
@@ -15230,7 +15284,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>42.5</v>
       </c>
@@ -15256,7 +15310,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>46.8</v>
       </c>
@@ -15282,7 +15336,7 @@
         <v>1.8979999999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>51</v>
       </c>
@@ -15308,7 +15362,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>55.3</v>
       </c>
@@ -15334,7 +15388,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>59.5</v>
       </c>
@@ -15360,7 +15414,7 @@
         <v>1.839</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>63.8</v>
       </c>
@@ -15386,7 +15440,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>68</v>
       </c>
@@ -15412,7 +15466,7 @@
         <v>1.6910000000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>72.3</v>
       </c>
@@ -15438,7 +15492,7 @@
         <v>1.5760000000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>76.5</v>
       </c>
@@ -15464,7 +15518,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>80.8</v>
       </c>
@@ -15490,7 +15544,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>85</v>
       </c>
@@ -15516,7 +15570,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>89.3</v>
       </c>
@@ -15542,7 +15596,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>93.5</v>
       </c>
@@ -15568,7 +15622,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>97.8</v>
       </c>
@@ -15594,7 +15648,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>102</v>
       </c>
@@ -15620,7 +15674,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>106.3</v>
       </c>
@@ -15646,7 +15700,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>110.5</v>
       </c>
@@ -15672,7 +15726,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>114.8</v>
       </c>
@@ -15698,7 +15752,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>119</v>
       </c>
@@ -15724,7 +15778,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>123.3</v>
       </c>
@@ -15750,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15764,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15790,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15810,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15836,7 +15890,7 @@
         <v>2.0920000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>4.5</v>
       </c>
@@ -15862,7 +15916,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>9</v>
       </c>
@@ -15888,7 +15942,7 @@
         <v>2.0979999999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>13.5</v>
       </c>
@@ -15914,7 +15968,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>18</v>
       </c>
@@ -15940,7 +15994,7 @@
         <v>2.1040000000000001</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>22.4</v>
       </c>
@@ -15966,7 +16020,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>26.9</v>
       </c>
@@ -15992,7 +16046,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>31.4</v>
       </c>
@@ -16018,7 +16072,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>35.9</v>
       </c>
@@ -16044,7 +16098,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>40.4</v>
       </c>
@@ -16070,7 +16124,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>44.9</v>
       </c>
@@ -16096,7 +16150,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>49.4</v>
       </c>
@@ -16122,7 +16176,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>53.9</v>
       </c>
@@ -16148,7 +16202,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>58.3</v>
       </c>
@@ -16174,7 +16228,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>62.8</v>
       </c>
@@ -16200,7 +16254,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>67.3</v>
       </c>
@@ -16226,7 +16280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>71.8</v>
       </c>
@@ -16252,7 +16306,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>76.3</v>
       </c>
@@ -16278,7 +16332,7 @@
         <v>1.7669999999999999</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>80.8</v>
       </c>
@@ -16304,7 +16358,7 @@
         <v>1.6359999999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>85.3</v>
       </c>
@@ -16330,7 +16384,7 @@
         <v>1.502</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>89.8</v>
       </c>
@@ -16356,7 +16410,7 @@
         <v>1.3660000000000001</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>94.3</v>
       </c>
@@ -16382,7 +16436,7 @@
         <v>1.226</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>98.7</v>
       </c>
@@ -16408,7 +16462,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>103.2</v>
       </c>
@@ -16434,7 +16488,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>107.7</v>
       </c>
@@ -16460,7 +16514,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>112.2</v>
       </c>
@@ -16486,7 +16540,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>116.7</v>
       </c>
@@ -16512,7 +16566,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>121.2</v>
       </c>
@@ -16538,7 +16592,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>125.7</v>
       </c>
@@ -16564,7 +16618,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>130.19999999999999</v>
       </c>
@@ -16590,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16604,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16630,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16650,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16676,7 +16730,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>4.7</v>
       </c>
@@ -16702,7 +16756,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>9.4</v>
       </c>
@@ -16728,7 +16782,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>14.2</v>
       </c>
@@ -16754,7 +16808,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>18.899999999999999</v>
       </c>
@@ -16780,7 +16834,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>23.6</v>
       </c>
@@ -16806,7 +16860,7 @@
         <v>2.3340000000000001</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>28.3</v>
       </c>
@@ -16832,7 +16886,7 @@
         <v>2.3380000000000001</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>33.1</v>
       </c>
@@ -16858,7 +16912,7 @@
         <v>2.343</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>37.799999999999997</v>
       </c>
@@ -16884,7 +16938,7 @@
         <v>2.347</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>42.5</v>
       </c>
@@ -16910,7 +16964,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>47.2</v>
       </c>
@@ -16936,7 +16990,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>52</v>
       </c>
@@ -16962,7 +17016,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>56.7</v>
       </c>
@@ -16988,7 +17042,7 @@
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>61.4</v>
       </c>
@@ -17014,7 +17068,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>66.099999999999994</v>
       </c>
@@ -17040,7 +17094,7 @@
         <v>2.2930000000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>70.900000000000006</v>
       </c>
@@ -17066,7 +17120,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>75.599999999999994</v>
       </c>
@@ -17092,7 +17146,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>80.3</v>
       </c>
@@ -17118,7 +17172,7 @@
         <v>1.974</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>85</v>
       </c>
@@ -17144,7 +17198,7 @@
         <v>1.8280000000000001</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>89.8</v>
       </c>
@@ -17170,7 +17224,7 @@
         <v>1.6779999999999999</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>94.5</v>
       </c>
@@ -17196,7 +17250,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>99.2</v>
       </c>
@@ -17222,7 +17276,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>103.9</v>
       </c>
@@ -17248,7 +17302,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>108.7</v>
       </c>
@@ -17274,7 +17328,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>113.4</v>
       </c>
@@ -17300,7 +17354,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>118.1</v>
       </c>
@@ -17326,7 +17380,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>122.8</v>
       </c>
@@ -17352,7 +17406,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>127.6</v>
       </c>
@@ -17378,7 +17432,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>132.30000000000001</v>
       </c>
@@ -17404,7 +17458,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>137</v>
       </c>
@@ -17430,7 +17484,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17444,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17470,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17490,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17516,7 +17570,7 @@
         <v>2.552</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>5</v>
       </c>
@@ -17542,7 +17596,7 @@
         <v>2.5550000000000002</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>9.9</v>
       </c>
@@ -17568,7 +17622,7 @@
         <v>2.5590000000000002</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>14.9</v>
       </c>
@@ -17594,7 +17648,7 @@
         <v>2.5630000000000002</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>19.8</v>
       </c>
@@ -17620,7 +17674,7 @@
         <v>2.5670000000000002</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>24.8</v>
       </c>
@@ -17646,7 +17700,7 @@
         <v>2.5710000000000002</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>29.8</v>
       </c>
@@ -17672,7 +17726,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>34.700000000000003</v>
       </c>
@@ -17698,7 +17752,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>39.700000000000003</v>
       </c>
@@ -17724,7 +17778,7 @@
         <v>2.5859999999999999</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>44.6</v>
       </c>
@@ -17750,7 +17804,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>49.6</v>
       </c>
@@ -17776,7 +17830,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>54.6</v>
       </c>
@@ -17802,7 +17856,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>59.5</v>
       </c>
@@ -17828,7 +17882,7 @@
         <v>2.5870000000000002</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>64.5</v>
       </c>
@@ -17854,7 +17908,7 @@
         <v>2.5739999999999998</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>69.400000000000006</v>
       </c>
@@ -17880,7 +17934,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>74.400000000000006</v>
       </c>
@@ -17906,7 +17960,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>79.400000000000006</v>
       </c>
@@ -17932,7 +17986,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>84.3</v>
       </c>
@@ -17958,7 +18012,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>89.3</v>
       </c>
@@ -17984,7 +18038,7 @@
         <v>2.0329999999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>94.2</v>
       </c>
@@ -18010,7 +18064,7 @@
         <v>1.8660000000000001</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>99.2</v>
       </c>
@@ -18036,7 +18090,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>104.2</v>
       </c>
@@ -18062,7 +18116,7 @@
         <v>1.5229999999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>109.1</v>
       </c>
@@ -18088,7 +18142,7 @@
         <v>1.3460000000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>114.1</v>
       </c>
@@ -18114,7 +18168,7 @@
         <v>1.1659999999999999</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>119</v>
       </c>
@@ -18140,7 +18194,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>124</v>
       </c>
@@ -18166,7 +18220,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>129</v>
       </c>
@@ -18192,7 +18246,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>133.9</v>
       </c>
@@ -18218,7 +18272,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>138.9</v>
       </c>
@@ -18244,7 +18298,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>143.80000000000001</v>
       </c>
@@ -18270,7 +18324,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18284,7 +18338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18310,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18330,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18356,7 +18410,7 @@
         <v>2.7989999999999999</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>5.2</v>
       </c>
@@ -18382,7 +18436,7 @@
         <v>2.8029999999999999</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>10.4</v>
       </c>
@@ -18408,7 +18462,7 @@
         <v>2.8069999999999999</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>15.6</v>
       </c>
@@ -18434,7 +18488,7 @@
         <v>2.8109999999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>20.8</v>
       </c>
@@ -18460,7 +18514,7 @@
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>26</v>
       </c>
@@ -18486,7 +18540,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>31.2</v>
       </c>
@@ -18512,7 +18566,7 @@
         <v>2.8260000000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>36.4</v>
       </c>
@@ -18538,7 +18592,7 @@
         <v>2.831</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>41.6</v>
       </c>
@@ -18564,7 +18618,7 @@
         <v>2.8370000000000002</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>46.8</v>
       </c>
@@ -18590,7 +18644,7 @@
         <v>2.8420000000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>52</v>
       </c>
@@ -18616,7 +18670,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>57.2</v>
       </c>
@@ -18642,7 +18696,7 @@
         <v>2.8460000000000001</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>62.4</v>
       </c>
@@ -18668,7 +18722,7 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>67.599999999999994</v>
       </c>
@@ -18694,7 +18748,7 @@
         <v>2.8330000000000002</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>72.8</v>
       </c>
@@ -18720,7 +18774,7 @@
         <v>2.8050000000000002</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>78</v>
       </c>
@@ -18746,7 +18800,7 @@
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>83.2</v>
       </c>
@@ -18772,7 +18826,7 @@
         <v>2.609</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>88.4</v>
       </c>
@@ -18798,7 +18852,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>93.6</v>
       </c>
@@ -18824,7 +18878,7 @@
         <v>2.2509999999999999</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>98.8</v>
       </c>
@@ -18850,7 +18904,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>104</v>
       </c>
@@ -18876,7 +18930,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>109.2</v>
       </c>
@@ -18902,7 +18956,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>114.4</v>
       </c>
@@ -18928,7 +18982,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>119.6</v>
       </c>
@@ -18954,7 +19008,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>124.8</v>
       </c>
@@ -18980,7 +19034,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>130</v>
       </c>
@@ -19006,7 +19060,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>135.19999999999999</v>
       </c>
@@ -19032,7 +19086,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>140.4</v>
       </c>
@@ -19058,7 +19112,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>145.6</v>
       </c>
@@ -19084,7 +19138,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>150.80000000000001</v>
       </c>
@@ -19110,7 +19164,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19124,7 +19178,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19150,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19170,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19196,7 +19250,7 @@
         <v>3.0569999999999999</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>5.4</v>
       </c>
@@ -19222,7 +19276,7 @@
         <v>3.0609999999999999</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>10.9</v>
       </c>
@@ -19248,7 +19302,7 @@
         <v>3.0649999999999999</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>16.3</v>
       </c>
@@ -19274,7 +19328,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>21.7</v>
       </c>
@@ -19300,7 +19354,7 @@
         <v>3.0750000000000002</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>27.2</v>
       </c>
@@ -19326,7 +19380,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>32.6</v>
       </c>
@@ -19352,7 +19406,7 @@
         <v>3.0859999999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>38.1</v>
       </c>
@@ -19378,7 +19432,7 @@
         <v>3.093</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>43.5</v>
       </c>
@@ -19404,7 +19458,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>48.9</v>
       </c>
@@ -19430,7 +19484,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>54.4</v>
       </c>
@@ -19456,7 +19510,7 @@
         <v>3.1110000000000002</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>59.8</v>
       </c>
@@ -19482,7 +19536,7 @@
         <v>3.113</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>65.2</v>
       </c>
@@ -19508,7 +19562,7 @@
         <v>3.113</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>70.7</v>
       </c>
@@ -19534,7 +19588,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>76.099999999999994</v>
       </c>
@@ -19560,7 +19614,7 @@
         <v>3.0830000000000002</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>81.5</v>
       </c>
@@ -19586,7 +19640,7 @@
         <v>3.0190000000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>87</v>
       </c>
@@ -19612,7 +19666,7 @@
         <v>2.8809999999999998</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>92.4</v>
       </c>
@@ -19638,7 +19692,7 @@
         <v>2.6859999999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>97.8</v>
       </c>
@@ -19664,7 +19718,7 @@
         <v>2.4870000000000001</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>103.3</v>
       </c>
@@ -19690,7 +19744,7 @@
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>108.7</v>
       </c>
@@ -19716,7 +19770,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>114.2</v>
       </c>
@@ -19742,7 +19796,7 @@
         <v>1.8620000000000001</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>119.6</v>
       </c>
@@ -19768,7 +19822,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>125</v>
       </c>
@@ -19794,7 +19848,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>130.5</v>
       </c>
@@ -19820,7 +19874,7 @@
         <v>1.198</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>135.9</v>
       </c>
@@ -19846,7 +19900,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>141.30000000000001</v>
       </c>
@@ -19872,7 +19926,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>146.80000000000001</v>
       </c>
@@ -19898,7 +19952,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>152.19999999999999</v>
       </c>
@@ -19924,7 +19978,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>157.6</v>
       </c>
@@ -19950,7 +20004,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>30</v>
       </c>
@@ -19964,7 +20018,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>26</v>
       </c>
@@ -19990,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>40</v>
       </c>
@@ -20010,7 +20064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20036,7 +20090,7 @@
         <v>3.327</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>5.7</v>
       </c>
@@ -20062,7 +20116,7 @@
         <v>3.331</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>11.3</v>
       </c>
@@ -20088,7 +20142,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>17</v>
       </c>
@@ -20114,7 +20168,7 @@
         <v>3.3410000000000002</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>22.7</v>
       </c>
@@ -20140,7 +20194,7 @@
         <v>3.3460000000000001</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>28.4</v>
       </c>
@@ -20166,7 +20220,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>34</v>
       </c>
@@ -20192,7 +20246,7 @@
         <v>3.3580000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>39.700000000000003</v>
       </c>
@@ -20218,7 +20272,7 @@
         <v>3.3650000000000002</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>45.4</v>
       </c>
@@ -20244,7 +20298,7 @@
         <v>3.3730000000000002</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>51</v>
       </c>
@@ -20270,7 +20324,7 @@
         <v>3.3809999999999998</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>56.7</v>
       </c>
@@ -20296,7 +20350,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>62.4</v>
       </c>
@@ -20322,7 +20376,7 @@
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>68.099999999999994</v>
       </c>
@@ -20348,7 +20402,7 @@
         <v>3.399</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>73.7</v>
       </c>
@@ -20374,7 +20428,7 @@
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>79.400000000000006</v>
       </c>
@@ -20400,7 +20454,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>85.1</v>
       </c>
@@ -20426,7 +20480,7 @@
         <v>3.3210000000000002</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>90.7</v>
       </c>
@@ -20452,7 +20506,7 @@
         <v>3.177</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>96.4</v>
       </c>
@@ -20478,7 +20532,7 @@
         <v>2.9609999999999999</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>102.1</v>
       </c>
@@ -20504,7 +20558,7 @@
         <v>2.742</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>107.8</v>
       </c>
@@ -20530,7 +20584,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>113.4</v>
       </c>
@@ -20556,7 +20610,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>119.1</v>
       </c>
@@ -20582,7 +20636,7 @@
         <v>2.0539999999999998</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>124.8</v>
       </c>
@@ -20608,7 +20662,7 @@
         <v>1.8169999999999999</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>130.4</v>
       </c>
@@ -20634,7 +20688,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>136.1</v>
       </c>
@@ -20660,7 +20714,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>141.80000000000001</v>
       </c>
@@ -20686,7 +20740,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>147.4</v>
       </c>
@@ -20712,7 +20766,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>153.1</v>
       </c>
@@ -20738,7 +20792,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>158.80000000000001</v>
       </c>
@@ -20764,7 +20818,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>164.5</v>
       </c>
@@ -20790,7 +20844,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>30</v>
       </c>
@@ -20804,7 +20858,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>26</v>
       </c>
@@ -20830,7 +20884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>40</v>
       </c>
@@ -20850,7 +20904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>0</v>
       </c>
@@ -20876,7 +20930,7 @@
         <v>3.6389999999999998</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>5.9</v>
       </c>
@@ -20902,7 +20956,7 @@
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>11.8</v>
       </c>
@@ -20928,7 +20982,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>17.7</v>
       </c>
@@ -20954,7 +21008,7 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>23.6</v>
       </c>
@@ -20980,7 +21034,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>29.5</v>
       </c>
@@ -21006,7 +21060,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>35.4</v>
       </c>
@@ -21032,7 +21086,7 @@
         <v>3.6779999999999999</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>41.3</v>
       </c>
@@ -21058,7 +21112,7 @@
         <v>3.6859999999999999</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>47.3</v>
       </c>
@@ -21084,7 +21138,7 @@
         <v>3.694</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>53.2</v>
       </c>
@@ -21110,7 +21164,7 @@
         <v>3.7029999999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>59.1</v>
       </c>
@@ -21136,7 +21190,7 @@
         <v>3.7109999999999999</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>65</v>
       </c>
@@ -21162,7 +21216,7 @@
         <v>3.718</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>70.900000000000006</v>
       </c>
@@ -21188,7 +21242,7 @@
         <v>3.7210000000000001</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>76.8</v>
       </c>
@@ -21214,7 +21268,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>82.7</v>
       </c>
@@ -21240,7 +21294,7 @@
         <v>3.7040000000000002</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>88.6</v>
       </c>
@@ -21266,7 +21320,7 @@
         <v>3.6509999999999998</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>94.5</v>
       </c>
@@ -21292,7 +21346,7 @@
         <v>3.4969999999999999</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>100.4</v>
       </c>
@@ -21318,7 +21372,7 @@
         <v>3.2589999999999999</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>106.3</v>
       </c>
@@ -21344,7 +21398,7 @@
         <v>3.0190000000000001</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>112.2</v>
       </c>
@@ -21370,7 +21424,7 @@
         <v>2.7709999999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>118.1</v>
       </c>
@@ -21396,7 +21450,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>124</v>
       </c>
@@ -21422,7 +21476,7 @@
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>129.9</v>
       </c>
@@ -21448,7 +21502,7 @@
         <v>2.0019999999999998</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>135.9</v>
       </c>
@@ -21474,7 +21528,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>141.80000000000001</v>
       </c>
@@ -21500,7 +21554,7 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>147.69999999999999</v>
       </c>
@@ -21526,7 +21580,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>153.6</v>
       </c>
@@ -21552,7 +21606,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>159.5</v>
       </c>
@@ -21578,7 +21632,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>165.4</v>
       </c>
@@ -21604,7 +21658,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>171.3</v>
       </c>
@@ -21630,7 +21684,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>30</v>
       </c>
@@ -21644,7 +21698,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>26</v>
       </c>
@@ -21670,7 +21724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>40</v>
       </c>
@@ -21690,7 +21744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>0</v>
       </c>
@@ -21716,7 +21770,7 @@
         <v>3.9830000000000001</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>6.1</v>
       </c>
@@ -21742,7 +21796,7 @@
         <v>3.9889999999999999</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>12.3</v>
       </c>
@@ -21768,7 +21822,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>18.399999999999999</v>
       </c>
@@ -21794,7 +21848,7 @@
         <v>4.0019999999999998</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>24.6</v>
       </c>
@@ -21820,7 +21874,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>30.7</v>
       </c>
@@ -21846,7 +21900,7 @@
         <v>4.0170000000000003</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>36.799999999999997</v>
       </c>
@@ -21872,7 +21926,7 @@
         <v>4.0250000000000004</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>43</v>
       </c>
@@ -21898,7 +21952,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>49.1</v>
       </c>
@@ -21924,7 +21978,7 @@
         <v>4.0389999999999997</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>55.3</v>
       </c>
@@ -21950,7 +22004,7 @@
         <v>4.0460000000000003</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>61.4</v>
       </c>
@@ -21976,7 +22030,7 @@
         <v>4.0519999999999996</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>67.5</v>
       </c>
@@ -22002,7 +22056,7 @@
         <v>4.0570000000000004</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>73.7</v>
       </c>
@@ -22028,7 +22082,7 @@
         <v>4.0609999999999999</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>79.8</v>
       </c>
@@ -22054,7 +22108,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>86</v>
       </c>
@@ -22080,7 +22134,7 @@
         <v>4.048</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>92.1</v>
       </c>
@@ -22106,7 +22160,7 @@
         <v>4.0140000000000002</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>98.2</v>
       </c>
@@ -22132,7 +22186,7 @@
         <v>3.8559999999999999</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>104.4</v>
       </c>
@@ -22158,7 +22212,7 @@
         <v>3.589</v>
       </c>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>110.5</v>
       </c>
@@ -22184,7 +22238,7 @@
         <v>3.3239999999999998</v>
       </c>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>116.7</v>
       </c>
@@ -22210,7 +22264,7 @@
         <v>3.052</v>
       </c>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>122.8</v>
       </c>
@@ -22236,7 +22290,7 @@
         <v>2.7749999999999999</v>
       </c>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>128.9</v>
       </c>
@@ -22262,7 +22316,7 @@
         <v>2.4929999999999999</v>
       </c>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>135.1</v>
       </c>
@@ -22288,7 +22342,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>141.19999999999999</v>
       </c>
@@ -22314,7 +22368,7 @@
         <v>1.911</v>
       </c>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>147.4</v>
       </c>
@@ -22340,7 +22394,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>153.5</v>
       </c>
@@ -22366,7 +22420,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>159.6</v>
       </c>
@@ -22392,7 +22446,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>165.8</v>
       </c>
@@ -22418,7 +22472,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>171.9</v>
       </c>
@@ -22444,7 +22498,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>178.1</v>
       </c>
@@ -22470,7 +22524,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>30</v>
       </c>
@@ -22484,7 +22538,7 @@
         <v>26999</v>
       </c>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>26</v>
       </c>
@@ -22510,7 +22564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>40</v>
       </c>
@@ -22530,7 +22584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>0</v>
       </c>
@@ -22556,7 +22610,7 @@
         <v>4.3710000000000004</v>
       </c>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>6.4</v>
       </c>
@@ -22582,7 +22636,7 @@
         <v>4.3780000000000001</v>
       </c>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>12.7</v>
       </c>
@@ -22608,7 +22662,7 @@
         <v>4.3869999999999996</v>
       </c>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>19.100000000000001</v>
       </c>
@@ -22634,7 +22688,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>25.5</v>
       </c>
@@ -22660,7 +22714,7 @@
         <v>4.4029999999999996</v>
       </c>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>31.9</v>
       </c>
@@ -22686,7 +22740,7 @@
         <v>4.4109999999999996</v>
       </c>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>38.200000000000003</v>
       </c>
@@ -22712,7 +22766,7 @@
         <v>4.4169999999999998</v>
       </c>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>44.6</v>
       </c>
@@ -22738,7 +22792,7 @@
         <v>4.4240000000000004</v>
       </c>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>51</v>
       </c>
@@ -22764,7 +22818,7 @@
         <v>4.4290000000000003</v>
       </c>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>57.3</v>
       </c>
@@ -22790,7 +22844,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>63.7</v>
       </c>
@@ -22816,7 +22870,7 @@
         <v>4.4340000000000002</v>
       </c>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>70.099999999999994</v>
       </c>
@@ -22842,7 +22896,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>76.5</v>
       </c>
@@ -22868,7 +22922,7 @@
         <v>4.4290000000000003</v>
       </c>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>82.8</v>
       </c>
@@ -22894,7 +22948,7 @@
         <v>4.423</v>
       </c>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>89.2</v>
       </c>
@@ -22920,7 +22974,7 @@
         <v>4.415</v>
       </c>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>95.6</v>
       </c>
@@ -22946,7 +23000,7 @@
         <v>4.4020000000000001</v>
       </c>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>101.9</v>
       </c>
@@ -22972,7 +23026,7 @@
         <v>4.2859999999999996</v>
       </c>
     </row>
-    <row r="997" spans="1:8">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>108.3</v>
       </c>
@@ -22998,7 +23052,7 @@
         <v>3.9849999999999999</v>
       </c>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>114.7</v>
       </c>
@@ -23024,7 +23078,7 @@
         <v>3.6739999999999999</v>
       </c>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>121.1</v>
       </c>
@@ -23050,7 +23104,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>127.4</v>
       </c>
@@ -23076,7 +23130,7 @@
         <v>3.0649999999999999</v>
       </c>
     </row>
-    <row r="1001" spans="1:8">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>133.80000000000001</v>
       </c>
@@ -23102,7 +23156,7 @@
         <v>2.754</v>
       </c>
     </row>
-    <row r="1002" spans="1:8">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>140.19999999999999</v>
       </c>
@@ -23128,7 +23182,7 @@
         <v>2.4359999999999999</v>
       </c>
     </row>
-    <row r="1003" spans="1:8">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>146.6</v>
       </c>
@@ -23154,7 +23208,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="1004" spans="1:8">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>152.9</v>
       </c>
@@ -23180,7 +23234,7 @@
         <v>1.778</v>
       </c>
     </row>
-    <row r="1005" spans="1:8">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>159.30000000000001</v>
       </c>
@@ -23206,7 +23260,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="1006" spans="1:8">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>165.7</v>
       </c>
@@ -23232,7 +23286,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="1007" spans="1:8">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>172</v>
       </c>
@@ -23258,7 +23312,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="1008" spans="1:8">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>178.4</v>
       </c>
@@ -23284,7 +23338,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="1009" spans="1:8">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>184.8</v>
       </c>
@@ -23310,7 +23364,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="1013" spans="1:8">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>30</v>
       </c>
@@ -23324,7 +23378,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="1015" spans="1:8">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>26</v>
       </c>
@@ -23350,7 +23404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1016" spans="1:8">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>40</v>
       </c>
@@ -23370,7 +23424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1017" spans="1:8">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>0</v>
       </c>
@@ -23396,7 +23450,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="1018" spans="1:8">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>6.6</v>
       </c>
@@ -23422,7 +23476,7 @@
         <v>4.7759999999999998</v>
       </c>
     </row>
-    <row r="1019" spans="1:8">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>13.2</v>
       </c>
@@ -23448,7 +23502,7 @@
         <v>4.7859999999999996</v>
       </c>
     </row>
-    <row r="1020" spans="1:8">
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>19.8</v>
       </c>
@@ -23474,7 +23528,7 @@
         <v>4.7949999999999999</v>
       </c>
     </row>
-    <row r="1021" spans="1:8">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>26.4</v>
       </c>
@@ -23500,7 +23554,7 @@
         <v>4.8070000000000004</v>
       </c>
     </row>
-    <row r="1022" spans="1:8">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>33</v>
       </c>
@@ -23526,7 +23580,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="1023" spans="1:8">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>39.6</v>
       </c>
@@ -23552,7 +23606,7 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="1024" spans="1:8">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>46.2</v>
       </c>
@@ -23578,7 +23632,7 @@
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="1025" spans="1:8">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>52.8</v>
       </c>
@@ -23604,7 +23658,7 @@
         <v>4.843</v>
       </c>
     </row>
-    <row r="1026" spans="1:8">
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>59.4</v>
       </c>
@@ -23630,7 +23684,7 @@
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="1027" spans="1:8">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>66</v>
       </c>
@@ -23656,7 +23710,7 @@
         <v>4.8440000000000003</v>
       </c>
     </row>
-    <row r="1028" spans="1:8">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>72.599999999999994</v>
       </c>
@@ -23682,7 +23736,7 @@
         <v>4.8390000000000004</v>
       </c>
     </row>
-    <row r="1029" spans="1:8">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>79.2</v>
       </c>
@@ -23708,7 +23762,7 @@
         <v>4.8310000000000004</v>
       </c>
     </row>
-    <row r="1030" spans="1:8">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>85.9</v>
       </c>
@@ -23734,7 +23788,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="1031" spans="1:8">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>92.5</v>
       </c>
@@ -23760,7 +23814,7 @@
         <v>4.8029999999999999</v>
       </c>
     </row>
-    <row r="1032" spans="1:8">
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>99.1</v>
       </c>
@@ -23786,7 +23840,7 @@
         <v>4.7809999999999997</v>
       </c>
     </row>
-    <row r="1033" spans="1:8">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>105.7</v>
       </c>
@@ -23812,7 +23866,7 @@
         <v>4.7270000000000003</v>
       </c>
     </row>
-    <row r="1034" spans="1:8">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>112.3</v>
       </c>
@@ -23838,7 +23892,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="1035" spans="1:8">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>118.9</v>
       </c>
@@ -23864,7 +23918,7 @@
         <v>4.1459999999999999</v>
       </c>
     </row>
-    <row r="1036" spans="1:8">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>125.5</v>
       </c>
@@ -23890,7 +23944,7 @@
         <v>3.798</v>
       </c>
     </row>
-    <row r="1037" spans="1:8">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>132.1</v>
       </c>
@@ -23916,7 +23970,7 @@
         <v>3.4430000000000001</v>
       </c>
     </row>
-    <row r="1038" spans="1:8">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>138.69999999999999</v>
       </c>
@@ -23942,7 +23996,7 @@
         <v>3.0870000000000002</v>
       </c>
     </row>
-    <row r="1039" spans="1:8">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>145.30000000000001</v>
       </c>
@@ -23968,7 +24022,7 @@
         <v>2.734</v>
       </c>
     </row>
-    <row r="1040" spans="1:8">
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>151.9</v>
       </c>
@@ -23994,7 +24048,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="1041" spans="1:8">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>158.5</v>
       </c>
@@ -24020,7 +24074,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="1042" spans="1:8">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>165.1</v>
       </c>
@@ -24046,7 +24100,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="1043" spans="1:8">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>171.7</v>
       </c>
@@ -24072,7 +24126,7 @@
         <v>1.2290000000000001</v>
       </c>
     </row>
-    <row r="1044" spans="1:8">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>178.3</v>
       </c>
@@ -24098,7 +24152,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="1045" spans="1:8">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>184.9</v>
       </c>
@@ -24124,7 +24178,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="1046" spans="1:8">
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>191.5</v>
       </c>
@@ -24150,7 +24204,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="1050" spans="1:8">
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>30</v>
       </c>
@@ -24164,7 +24218,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="1052" spans="1:8">
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>26</v>
       </c>
@@ -24190,7 +24244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1053" spans="1:8">
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>40</v>
       </c>
@@ -24210,7 +24264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1054" spans="1:8">
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>0</v>
       </c>
@@ -24236,7 +24290,7 @@
         <v>5.1710000000000003</v>
       </c>
     </row>
-    <row r="1055" spans="1:8">
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>6.8</v>
       </c>
@@ -24262,7 +24316,7 @@
         <v>5.1820000000000004</v>
       </c>
     </row>
-    <row r="1056" spans="1:8">
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1056">
         <v>13.7</v>
       </c>
@@ -24288,7 +24342,7 @@
         <v>5.1929999999999996</v>
       </c>
     </row>
-    <row r="1057" spans="1:8">
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1057">
         <v>20.5</v>
       </c>
@@ -24314,7 +24368,7 @@
         <v>5.2009999999999996</v>
       </c>
     </row>
-    <row r="1058" spans="1:8">
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1058">
         <v>27.4</v>
       </c>
@@ -24340,7 +24394,7 @@
         <v>5.2110000000000003</v>
       </c>
     </row>
-    <row r="1059" spans="1:8">
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1059">
         <v>34.200000000000003</v>
       </c>
@@ -24366,7 +24420,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="1060" spans="1:8">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>41.1</v>
       </c>
@@ -24392,7 +24446,7 @@
         <v>5.2169999999999996</v>
       </c>
     </row>
-    <row r="1061" spans="1:8">
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1061">
         <v>47.9</v>
       </c>
@@ -24418,7 +24472,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="1062" spans="1:8">
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1062">
         <v>54.8</v>
       </c>
@@ -24444,7 +24498,7 @@
         <v>5.2270000000000003</v>
       </c>
     </row>
-    <row r="1063" spans="1:8">
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>61.6</v>
       </c>
@@ -24470,7 +24524,7 @@
         <v>5.2290000000000001</v>
       </c>
     </row>
-    <row r="1064" spans="1:8">
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064">
         <v>68.5</v>
       </c>
@@ -24496,7 +24550,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="1065" spans="1:8">
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>75.3</v>
       </c>
@@ -24522,7 +24576,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="1066" spans="1:8">
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1066">
         <v>82.2</v>
       </c>
@@ -24548,7 +24602,7 @@
         <v>5.226</v>
       </c>
     </row>
-    <row r="1067" spans="1:8">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1067">
         <v>89</v>
       </c>
@@ -24574,7 +24628,7 @@
         <v>5.2210000000000001</v>
       </c>
     </row>
-    <row r="1068" spans="1:8">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>95.9</v>
       </c>
@@ -24600,7 +24654,7 @@
         <v>5.2130000000000001</v>
       </c>
     </row>
-    <row r="1069" spans="1:8">
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1069">
         <v>102.7</v>
       </c>
@@ -24626,7 +24680,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="1070" spans="1:8">
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1070">
         <v>109.5</v>
       </c>
@@ -24652,7 +24706,7 @@
         <v>5.133</v>
       </c>
     </row>
-    <row r="1071" spans="1:8">
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>116.4</v>
       </c>
@@ -24678,7 +24732,7 @@
         <v>4.8949999999999996</v>
       </c>
     </row>
-    <row r="1072" spans="1:8">
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>123.2</v>
       </c>
@@ -24704,7 +24758,7 @@
         <v>4.593</v>
       </c>
     </row>
-    <row r="1073" spans="1:8">
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>130.1</v>
       </c>
@@ -24730,7 +24784,7 @@
         <v>4.2720000000000002</v>
       </c>
     </row>
-    <row r="1074" spans="1:8">
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>136.9</v>
       </c>
@@ -24756,7 +24810,7 @@
         <v>3.9060000000000001</v>
       </c>
     </row>
-    <row r="1075" spans="1:8">
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>143.80000000000001</v>
       </c>
@@ -24782,7 +24836,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="1076" spans="1:8">
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1076">
         <v>150.6</v>
       </c>
@@ -24808,7 +24862,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="1077" spans="1:8">
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077">
         <v>157.5</v>
       </c>
@@ -24834,7 +24888,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="1078" spans="1:8">
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>164.3</v>
       </c>
@@ -24860,7 +24914,7 @@
         <v>2.2669999999999999</v>
       </c>
     </row>
-    <row r="1079" spans="1:8">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>171.2</v>
       </c>
@@ -24886,7 +24940,7 @@
         <v>1.8340000000000001</v>
       </c>
     </row>
-    <row r="1080" spans="1:8">
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>178</v>
       </c>
@@ -24912,7 +24966,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="1081" spans="1:8">
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>184.9</v>
       </c>
@@ -24938,35 +24992,33 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="1082" spans="1:8">
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082">
         <v>191.7</v>
       </c>
-      <c r="B1082" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1082" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1082" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1082" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1082" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1082" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:8">
+      <c r="B1082">
+        <v>1.07</v>
+      </c>
+      <c r="C1082">
+        <v>0</v>
+      </c>
+      <c r="D1082">
+        <v>0</v>
+      </c>
+      <c r="E1082">
+        <v>0</v>
+      </c>
+      <c r="F1082">
+        <v>0</v>
+      </c>
+      <c r="G1082">
+        <v>0</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083">
         <v>198.6</v>
       </c>
@@ -24992,7 +25044,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="1087" spans="1:8">
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>30</v>
       </c>
@@ -25006,7 +25058,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="1089" spans="1:8">
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>26</v>
       </c>
@@ -25032,7 +25084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1090" spans="1:8">
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>40</v>
       </c>
@@ -25052,7 +25104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1091" spans="1:8">
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1091">
         <v>0</v>
       </c>
@@ -25078,7 +25130,7 @@
         <v>5.6550000000000002</v>
       </c>
     </row>
-    <row r="1092" spans="1:8">
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092">
         <v>7.1</v>
       </c>
@@ -25104,7 +25156,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="1093" spans="1:8">
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093">
         <v>14.2</v>
       </c>
@@ -25130,7 +25182,7 @@
         <v>5.6950000000000003</v>
       </c>
     </row>
-    <row r="1094" spans="1:8">
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094">
         <v>21.3</v>
       </c>
@@ -25156,7 +25208,7 @@
         <v>5.7069999999999999</v>
       </c>
     </row>
-    <row r="1095" spans="1:8">
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095">
         <v>28.4</v>
       </c>
@@ -25182,7 +25234,7 @@
         <v>5.7169999999999996</v>
       </c>
     </row>
-    <row r="1096" spans="1:8">
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096">
         <v>35.5</v>
       </c>
@@ -25208,7 +25260,7 @@
         <v>5.7249999999999996</v>
       </c>
     </row>
-    <row r="1097" spans="1:8">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097">
         <v>42.6</v>
       </c>
@@ -25234,7 +25286,7 @@
         <v>5.7329999999999997</v>
       </c>
     </row>
-    <row r="1098" spans="1:8">
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098">
         <v>49.7</v>
       </c>
@@ -25260,7 +25312,7 @@
         <v>5.7309999999999999</v>
       </c>
     </row>
-    <row r="1099" spans="1:8">
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099">
         <v>56.8</v>
       </c>
@@ -25286,7 +25338,7 @@
         <v>5.7279999999999998</v>
       </c>
     </row>
-    <row r="1100" spans="1:8">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100">
         <v>63.9</v>
       </c>
@@ -25312,7 +25364,7 @@
         <v>5.7220000000000004</v>
       </c>
     </row>
-    <row r="1101" spans="1:8">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101">
         <v>71</v>
       </c>
@@ -25338,7 +25390,7 @@
         <v>5.7110000000000003</v>
       </c>
     </row>
-    <row r="1102" spans="1:8">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102">
         <v>78.099999999999994</v>
       </c>
@@ -25364,7 +25416,7 @@
         <v>5.6950000000000003</v>
       </c>
     </row>
-    <row r="1103" spans="1:8">
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103">
         <v>85.1</v>
       </c>
@@ -25390,7 +25442,7 @@
         <v>5.6749999999999998</v>
       </c>
     </row>
-    <row r="1104" spans="1:8">
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104">
         <v>92.2</v>
       </c>
@@ -25416,7 +25468,7 @@
         <v>5.6470000000000002</v>
       </c>
     </row>
-    <row r="1105" spans="1:8">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105">
         <v>99.3</v>
       </c>
@@ -25442,7 +25494,7 @@
         <v>5.6159999999999997</v>
       </c>
     </row>
-    <row r="1106" spans="1:8">
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1106">
         <v>106.4</v>
       </c>
@@ -25468,7 +25520,7 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="1107" spans="1:8">
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107">
         <v>113.5</v>
       </c>
@@ -25494,7 +25546,7 @@
         <v>5.5339999999999998</v>
       </c>
     </row>
-    <row r="1108" spans="1:8">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108">
         <v>120.6</v>
       </c>
@@ -25520,7 +25572,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="1109" spans="1:8">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109">
         <v>127.7</v>
       </c>
@@ -25546,7 +25598,7 @@
         <v>5.0309999999999997</v>
       </c>
     </row>
-    <row r="1110" spans="1:8">
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110">
         <v>134.80000000000001</v>
       </c>
@@ -25572,7 +25624,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="1111" spans="1:8">
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111">
         <v>141.9</v>
       </c>
@@ -25598,7 +25650,7 @@
         <v>4.3079999999999998</v>
       </c>
     </row>
-    <row r="1112" spans="1:8">
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112">
         <v>149</v>
       </c>
@@ -25624,7 +25676,7 @@
         <v>3.911</v>
       </c>
     </row>
-    <row r="1113" spans="1:8">
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113">
         <v>156.1</v>
       </c>
@@ -25650,7 +25702,7 @@
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="1114" spans="1:8">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1114">
         <v>163.19999999999999</v>
       </c>
@@ -25676,7 +25728,7 @@
         <v>3.077</v>
       </c>
     </row>
-    <row r="1115" spans="1:8">
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1115">
         <v>170.3</v>
       </c>
@@ -25702,7 +25754,7 @@
         <v>2.601</v>
       </c>
     </row>
-    <row r="1116" spans="1:8">
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1116">
         <v>177.4</v>
       </c>
@@ -25728,7 +25780,7 @@
         <v>2.1440000000000001</v>
       </c>
     </row>
-    <row r="1117" spans="1:8">
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1117">
         <v>184.5</v>
       </c>
@@ -25754,35 +25806,33 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="1118" spans="1:8">
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1118">
         <v>191.6</v>
       </c>
-      <c r="B1118" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1118" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1118" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1118" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1118" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1118" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:8">
+      <c r="B1118">
+        <v>1.04</v>
+      </c>
+      <c r="C1118">
+        <v>0</v>
+      </c>
+      <c r="D1118">
+        <v>0</v>
+      </c>
+      <c r="E1118">
+        <v>0</v>
+      </c>
+      <c r="F1118">
+        <v>0</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1119">
         <v>198.7</v>
       </c>
@@ -25808,7 +25858,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="1120" spans="1:8">
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1120">
         <v>205.8</v>
       </c>
@@ -25834,7 +25884,7 @@
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="1124" spans="1:8">
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>30</v>
       </c>
@@ -25848,7 +25898,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="1126" spans="1:8">
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>26</v>
       </c>
@@ -25874,7 +25924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1127" spans="1:8">
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>40</v>
       </c>
@@ -25894,7 +25944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1128" spans="1:8">
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1128">
         <v>0</v>
       </c>
@@ -25920,7 +25970,7 @@
         <v>7.0540000000000003</v>
       </c>
     </row>
-    <row r="1129" spans="1:8">
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129">
         <v>7.7</v>
       </c>
@@ -25946,7 +25996,7 @@
         <v>7.077</v>
       </c>
     </row>
-    <row r="1130" spans="1:8">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1130">
         <v>15.4</v>
       </c>
@@ -25972,7 +26022,7 @@
         <v>7.0940000000000003</v>
       </c>
     </row>
-    <row r="1131" spans="1:8">
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1131">
         <v>23.1</v>
       </c>
@@ -25998,7 +26048,7 @@
         <v>7.1029999999999998</v>
       </c>
     </row>
-    <row r="1132" spans="1:8">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1132">
         <v>30.8</v>
       </c>
@@ -26024,7 +26074,7 @@
         <v>7.1079999999999997</v>
       </c>
     </row>
-    <row r="1133" spans="1:8">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133">
         <v>38.5</v>
       </c>
@@ -26050,7 +26100,7 @@
         <v>7.093</v>
       </c>
     </row>
-    <row r="1134" spans="1:8">
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1134">
         <v>46.1</v>
       </c>
@@ -26076,7 +26126,7 @@
         <v>7.0490000000000004</v>
       </c>
     </row>
-    <row r="1135" spans="1:8">
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1135">
         <v>53.8</v>
       </c>
@@ -26102,7 +26152,7 @@
         <v>7.0330000000000004</v>
       </c>
     </row>
-    <row r="1136" spans="1:8">
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1136">
         <v>61.5</v>
       </c>
@@ -26128,7 +26178,7 @@
         <v>7.0179999999999998</v>
       </c>
     </row>
-    <row r="1137" spans="1:8">
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1137">
         <v>69.2</v>
       </c>
@@ -26154,7 +26204,7 @@
         <v>7.0039999999999996</v>
       </c>
     </row>
-    <row r="1138" spans="1:8">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1138">
         <v>76.900000000000006</v>
       </c>
@@ -26180,7 +26230,7 @@
         <v>6.992</v>
       </c>
     </row>
-    <row r="1139" spans="1:8">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1139">
         <v>84.6</v>
       </c>
@@ -26206,7 +26256,7 @@
         <v>6.9649999999999999</v>
       </c>
     </row>
-    <row r="1140" spans="1:8">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1140">
         <v>92.3</v>
       </c>
@@ -26232,7 +26282,7 @@
         <v>6.9269999999999996</v>
       </c>
     </row>
-    <row r="1141" spans="1:8">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1141">
         <v>100</v>
       </c>
@@ -26258,7 +26308,7 @@
         <v>6.8860000000000001</v>
       </c>
     </row>
-    <row r="1142" spans="1:8">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1142">
         <v>107.7</v>
       </c>
@@ -26284,7 +26334,7 @@
         <v>6.8289999999999997</v>
       </c>
     </row>
-    <row r="1143" spans="1:8">
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1143">
         <v>115.4</v>
       </c>
@@ -26310,7 +26360,7 @@
         <v>6.7530000000000001</v>
       </c>
     </row>
-    <row r="1144" spans="1:8">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1144">
         <v>123.1</v>
       </c>
@@ -26336,7 +26386,7 @@
         <v>6.6520000000000001</v>
       </c>
     </row>
-    <row r="1145" spans="1:8">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1145">
         <v>130.69999999999999</v>
       </c>
@@ -26362,7 +26412,7 @@
         <v>6.508</v>
       </c>
     </row>
-    <row r="1146" spans="1:8">
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146">
         <v>138.4</v>
       </c>
@@ -26388,7 +26438,7 @@
         <v>6.2249999999999996</v>
       </c>
     </row>
-    <row r="1147" spans="1:8">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1147">
         <v>146.1</v>
       </c>
@@ -26414,7 +26464,7 @@
         <v>5.9020000000000001</v>
       </c>
     </row>
-    <row r="1148" spans="1:8">
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148">
         <v>153.80000000000001</v>
       </c>
@@ -26440,7 +26490,7 @@
         <v>5.5490000000000004</v>
       </c>
     </row>
-    <row r="1149" spans="1:8">
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149">
         <v>161.5</v>
       </c>
@@ -26466,7 +26516,7 @@
         <v>5.1050000000000004</v>
       </c>
     </row>
-    <row r="1150" spans="1:8">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150">
         <v>169.2</v>
       </c>
@@ -26492,7 +26542,7 @@
         <v>4.548</v>
       </c>
     </row>
-    <row r="1151" spans="1:8">
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1151">
         <v>176.9</v>
       </c>
@@ -26518,7 +26568,7 @@
         <v>3.9540000000000002</v>
       </c>
     </row>
-    <row r="1152" spans="1:8">
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1152">
         <v>184.6</v>
       </c>
@@ -26544,7 +26594,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="1153" spans="1:8">
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1153">
         <v>192.3</v>
       </c>
@@ -26570,7 +26620,7 @@
         <v>2.863</v>
       </c>
     </row>
-    <row r="1154" spans="1:8">
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1154">
         <v>200</v>
       </c>
@@ -26596,7 +26646,7 @@
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="1155" spans="1:8">
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1155">
         <v>207.7</v>
       </c>
@@ -26622,7 +26672,7 @@
         <v>1.5129999999999999</v>
       </c>
     </row>
-    <row r="1156" spans="1:8">
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1156">
         <v>215.3</v>
       </c>
@@ -26648,7 +26698,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="1157" spans="1:8">
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1157">
         <v>223</v>
       </c>
@@ -26674,7 +26724,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="1161" spans="1:8">
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>30</v>
       </c>
@@ -26688,7 +26738,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="1163" spans="1:8">
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>26</v>
       </c>
@@ -26714,7 +26764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1164" spans="1:8">
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>40</v>
       </c>
@@ -26734,7 +26784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1165" spans="1:8">
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1165">
         <v>0</v>
       </c>
@@ -26760,7 +26810,7 @@
         <v>7.3890000000000002</v>
       </c>
     </row>
-    <row r="1166" spans="1:8">
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1166">
         <v>7.9</v>
       </c>
@@ -26786,7 +26836,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="1167" spans="1:8">
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1167">
         <v>15.8</v>
       </c>
@@ -26812,7 +26862,7 @@
         <v>7.444</v>
       </c>
     </row>
-    <row r="1168" spans="1:8">
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1168">
         <v>23.7</v>
       </c>
@@ -26838,7 +26888,7 @@
         <v>7.4859999999999998</v>
       </c>
     </row>
-    <row r="1169" spans="1:8">
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1169">
         <v>31.7</v>
       </c>
@@ -26864,7 +26914,7 @@
         <v>7.5060000000000002</v>
       </c>
     </row>
-    <row r="1170" spans="1:8">
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1170">
         <v>39.6</v>
       </c>
@@ -26890,7 +26940,7 @@
         <v>7.5140000000000002</v>
       </c>
     </row>
-    <row r="1171" spans="1:8">
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171">
         <v>47.5</v>
       </c>
@@ -26916,7 +26966,7 @@
         <v>7.4960000000000004</v>
       </c>
     </row>
-    <row r="1172" spans="1:8">
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1172">
         <v>55.4</v>
       </c>
@@ -26942,7 +26992,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="1173" spans="1:8">
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1173">
         <v>63.3</v>
       </c>
@@ -26968,7 +27018,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="1174" spans="1:8">
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1174">
         <v>71.2</v>
       </c>
@@ -26994,7 +27044,7 @@
         <v>7.5060000000000002</v>
       </c>
     </row>
-    <row r="1175" spans="1:8">
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1175">
         <v>79.2</v>
       </c>
@@ -27020,7 +27070,7 @@
         <v>7.4820000000000002</v>
       </c>
     </row>
-    <row r="1176" spans="1:8">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1176">
         <v>87.1</v>
       </c>
@@ -27046,7 +27096,7 @@
         <v>7.4569999999999999</v>
       </c>
     </row>
-    <row r="1177" spans="1:8">
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1177">
         <v>95</v>
       </c>
@@ -27072,7 +27122,7 @@
         <v>7.4089999999999998</v>
       </c>
     </row>
-    <row r="1178" spans="1:8">
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1178">
         <v>102.9</v>
       </c>
@@ -27098,7 +27148,7 @@
         <v>7.3470000000000004</v>
       </c>
     </row>
-    <row r="1179" spans="1:8">
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1179">
         <v>110.8</v>
       </c>
@@ -27124,7 +27174,7 @@
         <v>7.2530000000000001</v>
       </c>
     </row>
-    <row r="1180" spans="1:8">
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1180">
         <v>118.7</v>
       </c>
@@ -27150,7 +27200,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="1181" spans="1:8">
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1181">
         <v>126.7</v>
       </c>
@@ -27176,7 +27226,7 @@
         <v>7.0529999999999999</v>
       </c>
     </row>
-    <row r="1182" spans="1:8">
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1182">
         <v>134.6</v>
       </c>
@@ -27202,7 +27252,7 @@
         <v>6.8369999999999997</v>
       </c>
     </row>
-    <row r="1183" spans="1:8">
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1183">
         <v>142.5</v>
       </c>
@@ -27228,7 +27278,7 @@
         <v>6.4939999999999998</v>
       </c>
     </row>
-    <row r="1184" spans="1:8">
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1184">
         <v>150.4</v>
       </c>
@@ -27254,7 +27304,7 @@
         <v>6.1219999999999999</v>
       </c>
     </row>
-    <row r="1185" spans="1:8">
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1185">
         <v>158.30000000000001</v>
       </c>
@@ -27280,7 +27330,7 @@
         <v>5.6950000000000003</v>
       </c>
     </row>
-    <row r="1186" spans="1:8">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1186">
         <v>166.2</v>
       </c>
@@ -27306,7 +27356,7 @@
         <v>5.2560000000000002</v>
       </c>
     </row>
-    <row r="1187" spans="1:8">
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1187">
         <v>174.2</v>
       </c>
@@ -27332,7 +27382,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="1188" spans="1:8">
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1188">
         <v>182.1</v>
       </c>
@@ -27358,7 +27408,7 @@
         <v>4.2039999999999997</v>
       </c>
     </row>
-    <row r="1189" spans="1:8">
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1189">
         <v>190</v>
       </c>
@@ -27384,7 +27434,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="1190" spans="1:8">
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1190">
         <v>197.9</v>
       </c>
@@ -27410,7 +27460,7 @@
         <v>2.8610000000000002</v>
       </c>
     </row>
-    <row r="1191" spans="1:8">
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1191">
         <v>205.8</v>
       </c>
@@ -27436,7 +27486,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="1192" spans="1:8">
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1192">
         <v>213.7</v>
       </c>
@@ -27462,7 +27512,7 @@
         <v>1.619</v>
       </c>
     </row>
-    <row r="1193" spans="1:8">
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1193">
         <v>221.7</v>
       </c>
@@ -27488,32 +27538,30 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="1194" spans="1:8">
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1194">
         <v>229.6</v>
       </c>
-      <c r="B1194" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1194" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1194" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1194" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1194" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1194" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1194">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C1194">
+        <v>0</v>
+      </c>
+      <c r="D1194">
+        <v>0</v>
+      </c>
+      <c r="E1194">
+        <v>0</v>
+      </c>
+      <c r="F1194">
+        <v>0</v>
+      </c>
+      <c r="G1194">
+        <v>0</v>
+      </c>
+      <c r="H1194">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27523,24 +27571,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
